--- a/Modules/A10/Input Data_Scheme Configurator.xlsx
+++ b/Modules/A10/Input Data_Scheme Configurator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GMS Process_GIT\GMS-Process_v1\Modules\A10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BCFC0D-2590-413F-BC73-CA23713772D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05503777-5C2E-4529-9BAA-100F612B3488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,9 +445,6 @@
     <t>Scheme Name</t>
   </si>
   <si>
-    <t>RPA PM</t>
-  </si>
-  <si>
     <t>RPA Future</t>
   </si>
   <si>
@@ -461,6 +458,9 @@
   </si>
   <si>
     <t>xyz</t>
+  </si>
+  <si>
+    <t>SKILL INDIA RPA Scheme</t>
   </si>
 </sst>
 </file>
@@ -885,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CR3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="2" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -1567,16 +1567,16 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -1624,7 +1624,7 @@
         <v>24</v>
       </c>
       <c r="T3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U3">
         <v>2</v>
